--- a/state_covid19.xlsx
+++ b/state_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanz\Desktop\Gdelt\googleapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F7FB06-A579-4A91-8F4D-BED1D89051BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F750E79-F6D5-4890-BEA4-F9DCDB35C200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FN51"/>
+  <dimension ref="A1:FN52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="EV1" workbookViewId="0">
+      <selection activeCell="FG5" sqref="FG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26683,6 +26683,684 @@
         <v>1740</v>
       </c>
     </row>
+    <row r="52" spans="1:170" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <f xml:space="preserve"> SUM(B2:B51)</f>
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <f xml:space="preserve"> SUM(C2:C51)</f>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <f xml:space="preserve"> SUM(D2:D51)</f>
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52:BP52" si="0" xml:space="preserve"> SUM(E2:E51)</f>
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AH52">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AI52">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AJ52">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AL52">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AM52">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AN52">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AO52">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AP52">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="AQ52">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="AR52">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="AS52">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="AT52">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="AU52">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+      <c r="AV52">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="AW52">
+        <f t="shared" si="0"/>
+        <v>747</v>
+      </c>
+      <c r="AX52">
+        <f t="shared" si="0"/>
+        <v>1032</v>
+      </c>
+      <c r="AY52">
+        <f t="shared" si="0"/>
+        <v>1308</v>
+      </c>
+      <c r="AZ52">
+        <f t="shared" si="0"/>
+        <v>1705</v>
+      </c>
+      <c r="BA52">
+        <f t="shared" si="0"/>
+        <v>2306</v>
+      </c>
+      <c r="BB52">
+        <f t="shared" si="0"/>
+        <v>2952</v>
+      </c>
+      <c r="BC52">
+        <f t="shared" si="0"/>
+        <v>3752</v>
+      </c>
+      <c r="BD52">
+        <f t="shared" si="0"/>
+        <v>4709</v>
+      </c>
+      <c r="BE52">
+        <f t="shared" si="0"/>
+        <v>6271</v>
+      </c>
+      <c r="BF52">
+        <f t="shared" si="0"/>
+        <v>9175</v>
+      </c>
+      <c r="BG52">
+        <f t="shared" si="0"/>
+        <v>14165</v>
+      </c>
+      <c r="BH52">
+        <f t="shared" si="0"/>
+        <v>19075</v>
+      </c>
+      <c r="BI52">
+        <f t="shared" si="0"/>
+        <v>26371</v>
+      </c>
+      <c r="BJ52">
+        <f t="shared" si="0"/>
+        <v>33640</v>
+      </c>
+      <c r="BK52">
+        <f t="shared" si="0"/>
+        <v>43732</v>
+      </c>
+      <c r="BL52">
+        <f t="shared" si="0"/>
+        <v>53705</v>
+      </c>
+      <c r="BM52">
+        <f t="shared" si="0"/>
+        <v>68355</v>
+      </c>
+      <c r="BN52">
+        <f t="shared" si="0"/>
+        <v>84808</v>
+      </c>
+      <c r="BO52">
+        <f t="shared" si="0"/>
+        <v>102291</v>
+      </c>
+      <c r="BP52">
+        <f t="shared" si="0"/>
+        <v>122645</v>
+      </c>
+      <c r="BQ52">
+        <f t="shared" ref="BQ52:EB52" si="1" xml:space="preserve"> SUM(BQ2:BQ51)</f>
+        <v>141353</v>
+      </c>
+      <c r="BR52">
+        <f t="shared" si="1"/>
+        <v>163210</v>
+      </c>
+      <c r="BS52">
+        <f t="shared" si="1"/>
+        <v>186164</v>
+      </c>
+      <c r="BT52">
+        <f t="shared" si="1"/>
+        <v>212550</v>
+      </c>
+      <c r="BU52">
+        <f t="shared" si="1"/>
+        <v>241203</v>
+      </c>
+      <c r="BV52">
+        <f t="shared" si="1"/>
+        <v>276303</v>
+      </c>
+      <c r="BW52">
+        <f t="shared" si="1"/>
+        <v>309838</v>
+      </c>
+      <c r="BX52">
+        <f t="shared" si="1"/>
+        <v>334454</v>
+      </c>
+      <c r="BY52">
+        <f t="shared" si="1"/>
+        <v>364209</v>
+      </c>
+      <c r="BZ52">
+        <f t="shared" si="1"/>
+        <v>394379</v>
+      </c>
+      <c r="CA52">
+        <f t="shared" si="1"/>
+        <v>426764</v>
+      </c>
+      <c r="CB52">
+        <f t="shared" si="1"/>
+        <v>460526</v>
+      </c>
+      <c r="CC52">
+        <f t="shared" si="1"/>
+        <v>493536</v>
+      </c>
+      <c r="CD52">
+        <f t="shared" si="1"/>
+        <v>524494</v>
+      </c>
+      <c r="CE52">
+        <f t="shared" si="1"/>
+        <v>551651</v>
+      </c>
+      <c r="CF52">
+        <f t="shared" si="1"/>
+        <v>576580</v>
+      </c>
+      <c r="CG52">
+        <f t="shared" si="1"/>
+        <v>601771</v>
+      </c>
+      <c r="CH52">
+        <f t="shared" si="1"/>
+        <v>631752</v>
+      </c>
+      <c r="CI52">
+        <f t="shared" si="1"/>
+        <v>664149</v>
+      </c>
+      <c r="CJ52">
+        <f t="shared" si="1"/>
+        <v>694958</v>
+      </c>
+      <c r="CK52">
+        <f t="shared" si="1"/>
+        <v>722507</v>
+      </c>
+      <c r="CL52">
+        <f t="shared" si="1"/>
+        <v>747501</v>
+      </c>
+      <c r="CM52">
+        <f t="shared" si="1"/>
+        <v>773860</v>
+      </c>
+      <c r="CN52">
+        <f t="shared" si="1"/>
+        <v>799176</v>
+      </c>
+      <c r="CO52">
+        <f t="shared" si="1"/>
+        <v>827843</v>
+      </c>
+      <c r="CP52">
+        <f t="shared" si="1"/>
+        <v>859343</v>
+      </c>
+      <c r="CQ52">
+        <f t="shared" si="1"/>
+        <v>896569</v>
+      </c>
+      <c r="CR52">
+        <f t="shared" si="1"/>
+        <v>930366</v>
+      </c>
+      <c r="CS52">
+        <f t="shared" si="1"/>
+        <v>955707</v>
+      </c>
+      <c r="CT52">
+        <f t="shared" si="1"/>
+        <v>978419</v>
+      </c>
+      <c r="CU52">
+        <f t="shared" si="1"/>
+        <v>1002423</v>
+      </c>
+      <c r="CV52">
+        <f t="shared" si="1"/>
+        <v>1030232</v>
+      </c>
+      <c r="CW52">
+        <f t="shared" si="1"/>
+        <v>1058991</v>
+      </c>
+      <c r="CX52">
+        <f t="shared" si="1"/>
+        <v>1091748</v>
+      </c>
+      <c r="CY52">
+        <f t="shared" si="1"/>
+        <v>1121581</v>
+      </c>
+      <c r="CZ52">
+        <f t="shared" si="1"/>
+        <v>1146528</v>
+      </c>
+      <c r="DA52">
+        <f t="shared" si="1"/>
+        <v>1168032</v>
+      </c>
+      <c r="DB52">
+        <f t="shared" si="1"/>
+        <v>1192002</v>
+      </c>
+      <c r="DC52">
+        <f t="shared" si="1"/>
+        <v>1215514</v>
+      </c>
+      <c r="DD52">
+        <f t="shared" si="1"/>
+        <v>1242933</v>
+      </c>
+      <c r="DE52">
+        <f t="shared" si="1"/>
+        <v>1270075</v>
+      </c>
+      <c r="DF52">
+        <f t="shared" si="1"/>
+        <v>1295450</v>
+      </c>
+      <c r="DG52">
+        <f t="shared" si="1"/>
+        <v>1315405</v>
+      </c>
+      <c r="DH52">
+        <f t="shared" si="1"/>
+        <v>1333069</v>
+      </c>
+      <c r="DI52">
+        <f t="shared" si="1"/>
+        <v>1354446</v>
+      </c>
+      <c r="DJ52">
+        <f t="shared" si="1"/>
+        <v>1375009</v>
+      </c>
+      <c r="DK52">
+        <f t="shared" si="1"/>
+        <v>1401624</v>
+      </c>
+      <c r="DL52">
+        <f t="shared" si="1"/>
+        <v>1426396</v>
+      </c>
+      <c r="DM52">
+        <f t="shared" si="1"/>
+        <v>1450736</v>
+      </c>
+      <c r="DN52">
+        <f t="shared" si="1"/>
+        <v>1469173</v>
+      </c>
+      <c r="DO52">
+        <f t="shared" si="1"/>
+        <v>1490662</v>
+      </c>
+      <c r="DP52">
+        <f t="shared" si="1"/>
+        <v>1511096</v>
+      </c>
+      <c r="DQ52">
+        <f t="shared" si="1"/>
+        <v>1533062</v>
+      </c>
+      <c r="DR52">
+        <f t="shared" si="1"/>
+        <v>1558783</v>
+      </c>
+      <c r="DS52">
+        <f t="shared" si="1"/>
+        <v>1582037</v>
+      </c>
+      <c r="DT52">
+        <f t="shared" si="1"/>
+        <v>1604218</v>
+      </c>
+      <c r="DU52">
+        <f t="shared" si="1"/>
+        <v>1624754</v>
+      </c>
+      <c r="DV52">
+        <f t="shared" si="1"/>
+        <v>1643720</v>
+      </c>
+      <c r="DW52">
+        <f t="shared" si="1"/>
+        <v>1661572</v>
+      </c>
+      <c r="DX52">
+        <f t="shared" si="1"/>
+        <v>1681546</v>
+      </c>
+      <c r="DY52">
+        <f t="shared" si="1"/>
+        <v>1703958</v>
+      </c>
+      <c r="DZ52">
+        <f t="shared" si="1"/>
+        <v>1728890</v>
+      </c>
+      <c r="EA52">
+        <f t="shared" si="1"/>
+        <v>1751696</v>
+      </c>
+      <c r="EB52">
+        <f t="shared" si="1"/>
+        <v>1770456</v>
+      </c>
+      <c r="EC52">
+        <f t="shared" ref="EC52:FN52" si="2" xml:space="preserve"> SUM(EC2:EC51)</f>
+        <v>1791732</v>
+      </c>
+      <c r="ED52">
+        <f t="shared" si="2"/>
+        <v>1812184</v>
+      </c>
+      <c r="EE52">
+        <f t="shared" si="2"/>
+        <v>1831520</v>
+      </c>
+      <c r="EF52">
+        <f t="shared" si="2"/>
+        <v>1853189</v>
+      </c>
+      <c r="EG52">
+        <f t="shared" si="2"/>
+        <v>1881861</v>
+      </c>
+      <c r="EH52">
+        <f t="shared" si="2"/>
+        <v>1904692</v>
+      </c>
+      <c r="EI52">
+        <f t="shared" si="2"/>
+        <v>1922598</v>
+      </c>
+      <c r="EJ52">
+        <f t="shared" si="2"/>
+        <v>1939523</v>
+      </c>
+      <c r="EK52">
+        <f t="shared" si="2"/>
+        <v>1958015</v>
+      </c>
+      <c r="EL52">
+        <f t="shared" si="2"/>
+        <v>1978394</v>
+      </c>
+      <c r="EM52">
+        <f t="shared" si="2"/>
+        <v>2000862</v>
+      </c>
+      <c r="EN52">
+        <f t="shared" si="2"/>
+        <v>2026501</v>
+      </c>
+      <c r="EO52">
+        <f t="shared" si="2"/>
+        <v>2052173</v>
+      </c>
+      <c r="EP52">
+        <f t="shared" si="2"/>
+        <v>2072579</v>
+      </c>
+      <c r="EQ52">
+        <f t="shared" si="2"/>
+        <v>2091126</v>
+      </c>
+      <c r="ER52">
+        <f t="shared" si="2"/>
+        <v>2115609</v>
+      </c>
+      <c r="ES52">
+        <f t="shared" si="2"/>
+        <v>2140021</v>
+      </c>
+      <c r="ET52">
+        <f t="shared" si="2"/>
+        <v>2167136</v>
+      </c>
+      <c r="EU52">
+        <f t="shared" si="2"/>
+        <v>2198025</v>
+      </c>
+      <c r="EV52">
+        <f t="shared" si="2"/>
+        <v>2229714</v>
+      </c>
+      <c r="EW52">
+        <f t="shared" si="2"/>
+        <v>2256541</v>
+      </c>
+      <c r="EX52">
+        <f t="shared" si="2"/>
+        <v>2285876</v>
+      </c>
+      <c r="EY52">
+        <f t="shared" si="2"/>
+        <v>2320783</v>
+      </c>
+      <c r="EZ52">
+        <f t="shared" si="2"/>
+        <v>2356156</v>
+      </c>
+      <c r="FA52">
+        <f t="shared" si="2"/>
+        <v>2395206</v>
+      </c>
+      <c r="FB52">
+        <f t="shared" si="2"/>
+        <v>2440971</v>
+      </c>
+      <c r="FC52">
+        <f t="shared" si="2"/>
+        <v>2483236</v>
+      </c>
+      <c r="FD52">
+        <f t="shared" si="2"/>
+        <v>2523053</v>
+      </c>
+      <c r="FE52">
+        <f t="shared" si="2"/>
+        <v>2562056</v>
+      </c>
+      <c r="FF52">
+        <f t="shared" si="2"/>
+        <v>2608319</v>
+      </c>
+      <c r="FG52">
+        <f t="shared" si="2"/>
+        <v>2657916</v>
+      </c>
+      <c r="FH52">
+        <f t="shared" si="2"/>
+        <v>2713388</v>
+      </c>
+      <c r="FI52">
+        <f t="shared" si="2"/>
+        <v>2766962</v>
+      </c>
+      <c r="FJ52">
+        <f t="shared" si="2"/>
+        <v>2812181</v>
+      </c>
+      <c r="FK52">
+        <f t="shared" si="2"/>
+        <v>2854024</v>
+      </c>
+      <c r="FL52">
+        <f t="shared" si="2"/>
+        <v>2907449</v>
+      </c>
+      <c r="FM52">
+        <f t="shared" si="2"/>
+        <v>2963423</v>
+      </c>
+      <c r="FN52">
+        <f t="shared" si="2"/>
+        <v>3074894</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_covid19.xlsx
+++ b/state_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanz\Desktop\Gdelt\googleapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F750E79-F6D5-4890-BEA4-F9DCDB35C200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9785EDA5-6DF7-4B0A-80B4-82DB4955FD4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,6 +31,12 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>states</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
   <si>
     <t>AL</t>
   </si>
@@ -180,12 +186,6 @@
   </si>
   <si>
     <t>WY</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>states</t>
   </si>
 </sst>
 </file>
@@ -563,17 +563,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FN52"/>
+  <dimension ref="A1:FO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EV1" workbookViewId="0">
-      <selection activeCell="FG5" sqref="FG5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>4</v>
@@ -1080,12 +1080,12 @@
         <v>171</v>
       </c>
       <c r="FN1" s="3" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1594,10 +1594,13 @@
       <c r="FN2">
         <v>46962</v>
       </c>
+      <c r="FO2">
+        <v>49174</v>
+      </c>
     </row>
-    <row r="3" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2106,10 +2109,13 @@
       <c r="FN3" s="2">
         <v>1226</v>
       </c>
+      <c r="FO3">
+        <v>1272</v>
+      </c>
     </row>
-    <row r="4" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2618,10 +2624,13 @@
       <c r="FN4">
         <v>108614</v>
       </c>
+      <c r="FO4">
+        <v>112671</v>
+      </c>
     </row>
-    <row r="5" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3130,10 +3139,13 @@
       <c r="FN5">
         <v>25246</v>
       </c>
+      <c r="FO5">
+        <v>26052</v>
+      </c>
     </row>
-    <row r="6" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3642,10 +3654,13 @@
       <c r="FN6">
         <v>296075</v>
       </c>
+      <c r="FO6">
+        <v>303323</v>
+      </c>
     </row>
-    <row r="7" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4154,10 +4169,13 @@
       <c r="FN7">
         <v>35116</v>
       </c>
+      <c r="FO7">
+        <v>35525</v>
+      </c>
     </row>
-    <row r="8" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -4666,10 +4684,13 @@
       <c r="FN8">
         <v>47108</v>
       </c>
+      <c r="FO8">
+        <v>47209</v>
+      </c>
     </row>
-    <row r="9" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -5178,10 +5199,13 @@
       <c r="FN9">
         <v>12462</v>
       </c>
+      <c r="FO9">
+        <v>12531</v>
+      </c>
     </row>
-    <row r="10" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5690,10 +5714,13 @@
       <c r="FN10">
         <v>223783</v>
       </c>
+      <c r="FO10">
+        <v>232718</v>
+      </c>
     </row>
-    <row r="11" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6202,10 +6229,13 @@
       <c r="FN11">
         <v>103890</v>
       </c>
+      <c r="FO11">
+        <v>106727</v>
+      </c>
     </row>
-    <row r="12" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6714,10 +6744,13 @@
       <c r="FN12">
         <v>1094</v>
       </c>
+      <c r="FO12">
+        <v>1130</v>
+      </c>
     </row>
-    <row r="13" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -7226,10 +7259,13 @@
       <c r="FN13">
         <v>8969</v>
       </c>
+      <c r="FO13">
+        <v>9428</v>
+      </c>
     </row>
-    <row r="14" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -7738,10 +7774,13 @@
       <c r="FN14">
         <v>150554</v>
       </c>
+      <c r="FO14">
+        <v>151572</v>
+      </c>
     </row>
-    <row r="15" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -8250,10 +8289,13 @@
       <c r="FN15">
         <v>49063</v>
       </c>
+      <c r="FO15">
+        <v>49575</v>
+      </c>
     </row>
-    <row r="16" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -8762,10 +8804,13 @@
       <c r="FN16">
         <v>32856</v>
       </c>
+      <c r="FO16">
+        <v>33476</v>
+      </c>
     </row>
-    <row r="17" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -9274,10 +9319,13 @@
       <c r="FN17">
         <v>17748</v>
       </c>
+      <c r="FO17">
+        <v>17893</v>
+      </c>
     </row>
-    <row r="18" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -9786,10 +9834,13 @@
       <c r="FN18">
         <v>17919</v>
       </c>
+      <c r="FO18">
+        <v>18245</v>
+      </c>
     </row>
-    <row r="19" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -10298,10 +10349,13 @@
       <c r="FN19">
         <v>70151</v>
       </c>
+      <c r="FO19">
+        <v>71994</v>
+      </c>
     </row>
-    <row r="20" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -10810,10 +10864,13 @@
       <c r="FN20">
         <v>3460</v>
       </c>
+      <c r="FO20">
+        <v>3486</v>
+      </c>
     </row>
-    <row r="21" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -11322,10 +11379,13 @@
       <c r="FN21">
         <v>70861</v>
       </c>
+      <c r="FO21">
+        <v>71447</v>
+      </c>
     </row>
-    <row r="22" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -11834,10 +11894,13 @@
       <c r="FN22">
         <v>110602</v>
       </c>
+      <c r="FO22">
+        <v>110897</v>
+      </c>
     </row>
-    <row r="23" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -12346,10 +12409,13 @@
       <c r="FN23">
         <v>74551</v>
       </c>
+      <c r="FO23">
+        <v>75063</v>
+      </c>
     </row>
-    <row r="24" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -12858,10 +12924,13 @@
       <c r="FN24">
         <v>39589</v>
       </c>
+      <c r="FO24">
+        <v>40163</v>
+      </c>
     </row>
-    <row r="25" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -13370,10 +13439,13 @@
       <c r="FN25">
         <v>26334</v>
       </c>
+      <c r="FO25">
+        <v>27183</v>
+      </c>
     </row>
-    <row r="26" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -13882,10 +13954,13 @@
       <c r="FN26">
         <v>32888</v>
       </c>
+      <c r="FO26">
+        <v>33591</v>
+      </c>
     </row>
-    <row r="27" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -14394,10 +14469,13 @@
       <c r="FN27">
         <v>1371</v>
       </c>
+      <c r="FO27">
+        <v>1466</v>
+      </c>
     </row>
-    <row r="28" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -14906,10 +14984,13 @@
       <c r="FN28">
         <v>20425</v>
       </c>
+      <c r="FO28">
+        <v>20623</v>
+      </c>
     </row>
-    <row r="29" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -15418,10 +15499,13 @@
       <c r="FN29">
         <v>24301</v>
       </c>
+      <c r="FO29">
+        <v>24904</v>
+      </c>
     </row>
-    <row r="30" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -15930,10 +16014,13 @@
       <c r="FN30">
         <v>5952</v>
       </c>
+      <c r="FO30">
+        <v>5973</v>
+      </c>
     </row>
-    <row r="31" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -16442,10 +16529,13 @@
       <c r="FN31">
         <v>177461</v>
       </c>
+      <c r="FO31">
+        <v>177795</v>
+      </c>
     </row>
-    <row r="32" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -16954,10 +17044,13 @@
       <c r="FN32">
         <v>14017</v>
       </c>
+      <c r="FO32">
+        <v>14251</v>
+      </c>
     </row>
-    <row r="33" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -17466,10 +17559,13 @@
       <c r="FN33">
         <v>424263</v>
       </c>
+      <c r="FO33">
+        <v>425072</v>
+      </c>
     </row>
-    <row r="34" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -17978,10 +18074,13 @@
       <c r="FN34">
         <v>77610</v>
       </c>
+      <c r="FO34">
+        <v>79669</v>
+      </c>
     </row>
-    <row r="35" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -18490,10 +18589,13 @@
       <c r="FN35">
         <v>3971</v>
       </c>
+      <c r="FO35">
+        <v>4070</v>
+      </c>
     </row>
-    <row r="36" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -19002,10 +19104,13 @@
       <c r="FN36">
         <v>60217</v>
       </c>
+      <c r="FO36">
+        <v>61331</v>
+      </c>
     </row>
-    <row r="37" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -19514,10 +19619,13 @@
       <c r="FN37">
         <v>17893</v>
       </c>
+      <c r="FO37">
+        <v>18496</v>
+      </c>
     </row>
-    <row r="38" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -20026,10 +20134,13 @@
       <c r="FN38">
         <v>10817</v>
       </c>
+      <c r="FO38">
+        <v>11188</v>
+      </c>
     </row>
-    <row r="39" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -20538,10 +20649,13 @@
       <c r="FN39">
         <v>96917</v>
       </c>
+      <c r="FO39">
+        <v>97634</v>
+      </c>
     </row>
-    <row r="40" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -21050,10 +21164,13 @@
       <c r="FN40">
         <v>17204</v>
       </c>
+      <c r="FO40">
+        <v>17243</v>
+      </c>
     </row>
-    <row r="41" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -21562,10 +21679,13 @@
       <c r="FN41">
         <v>48909</v>
       </c>
+      <c r="FO41">
+        <v>50691</v>
+      </c>
     </row>
-    <row r="42" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -22074,10 +22194,13 @@
       <c r="FN42">
         <v>7242</v>
       </c>
+      <c r="FO42">
+        <v>7336</v>
+      </c>
     </row>
-    <row r="43" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -22586,10 +22709,13 @@
       <c r="FN43">
         <v>55986</v>
       </c>
+      <c r="FO43">
+        <v>57591</v>
+      </c>
     </row>
-    <row r="44" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -23098,10 +23224,13 @@
       <c r="FN44">
         <v>229619</v>
       </c>
+      <c r="FO44">
+        <v>241013</v>
+      </c>
     </row>
-    <row r="45" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -23610,10 +23739,13 @@
       <c r="FN45">
         <v>26755</v>
       </c>
+      <c r="FO45">
+        <v>27356</v>
+      </c>
     </row>
-    <row r="46" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -24122,10 +24254,13 @@
       <c r="FN46">
         <v>1256</v>
       </c>
+      <c r="FO46">
+        <v>1272</v>
+      </c>
     </row>
-    <row r="47" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -24634,10 +24769,13 @@
       <c r="FN47">
         <v>67988</v>
       </c>
+      <c r="FO47">
+        <v>68931</v>
+      </c>
     </row>
-    <row r="48" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -25146,10 +25284,13 @@
       <c r="FN48">
         <v>38998</v>
       </c>
+      <c r="FO48">
+        <v>39686</v>
+      </c>
     </row>
-    <row r="49" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -25658,10 +25799,13 @@
       <c r="FN49">
         <v>3707</v>
       </c>
+      <c r="FO49">
+        <v>3826</v>
+      </c>
     </row>
-    <row r="50" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -26170,10 +26314,13 @@
       <c r="FN50">
         <v>33154</v>
       </c>
+      <c r="FO50">
+        <v>33908</v>
+      </c>
     </row>
-    <row r="51" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:171" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -26682,22 +26829,25 @@
       <c r="FN51">
         <v>1740</v>
       </c>
+      <c r="FO51">
+        <v>1774</v>
+      </c>
     </row>
-    <row r="52" spans="1:170" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:171" x14ac:dyDescent="0.45">
       <c r="B52">
-        <f xml:space="preserve"> SUM(B2:B51)</f>
+        <f t="shared" ref="B52:AG52" si="0">SUM(B2:B51)</f>
         <v>1</v>
       </c>
       <c r="C52">
-        <f xml:space="preserve"> SUM(C2:C51)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D52">
-        <f xml:space="preserve"> SUM(D2:D51)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E52">
-        <f t="shared" ref="E52:BP52" si="0" xml:space="preserve"> SUM(E2:E51)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F52">
@@ -26813,552 +26963,556 @@
         <v>17</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AH52:BM52" si="1">SUM(AH2:AH51)</f>
         <v>17</v>
       </c>
       <c r="AI52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AJ52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="AK52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="AL52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="AM52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="AN52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="AO52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="AP52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="AQ52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="AR52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="AS52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>182</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>231</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>376</v>
       </c>
       <c r="AV52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>490</v>
       </c>
       <c r="AW52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>747</v>
       </c>
       <c r="AX52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1032</v>
       </c>
       <c r="AY52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1308</v>
       </c>
       <c r="AZ52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1705</v>
       </c>
       <c r="BA52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2306</v>
       </c>
       <c r="BB52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2952</v>
       </c>
       <c r="BC52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3752</v>
       </c>
       <c r="BD52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4709</v>
       </c>
       <c r="BE52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6271</v>
       </c>
       <c r="BF52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9175</v>
       </c>
       <c r="BG52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14165</v>
       </c>
       <c r="BH52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19075</v>
       </c>
       <c r="BI52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26371</v>
       </c>
       <c r="BJ52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33640</v>
       </c>
       <c r="BK52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>43732</v>
       </c>
       <c r="BL52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>53705</v>
       </c>
       <c r="BM52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>68355</v>
       </c>
       <c r="BN52">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="BN52:CS52" si="2">SUM(BN2:BN51)</f>
         <v>84808</v>
       </c>
       <c r="BO52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>102291</v>
       </c>
       <c r="BP52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>122645</v>
       </c>
       <c r="BQ52">
-        <f t="shared" ref="BQ52:EB52" si="1" xml:space="preserve"> SUM(BQ2:BQ51)</f>
+        <f t="shared" si="2"/>
         <v>141353</v>
       </c>
       <c r="BR52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>163210</v>
       </c>
       <c r="BS52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>186164</v>
       </c>
       <c r="BT52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>212550</v>
       </c>
       <c r="BU52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>241203</v>
       </c>
       <c r="BV52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>276303</v>
       </c>
       <c r="BW52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>309838</v>
       </c>
       <c r="BX52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>334454</v>
       </c>
       <c r="BY52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>364209</v>
       </c>
       <c r="BZ52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>394379</v>
       </c>
       <c r="CA52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>426764</v>
       </c>
       <c r="CB52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>460526</v>
       </c>
       <c r="CC52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>493536</v>
       </c>
       <c r="CD52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>524494</v>
       </c>
       <c r="CE52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>551651</v>
       </c>
       <c r="CF52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>576580</v>
       </c>
       <c r="CG52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>601771</v>
       </c>
       <c r="CH52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>631752</v>
       </c>
       <c r="CI52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>664149</v>
       </c>
       <c r="CJ52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>694958</v>
       </c>
       <c r="CK52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>722507</v>
       </c>
       <c r="CL52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>747501</v>
       </c>
       <c r="CM52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>773860</v>
       </c>
       <c r="CN52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>799176</v>
       </c>
       <c r="CO52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>827843</v>
       </c>
       <c r="CP52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>859343</v>
       </c>
       <c r="CQ52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>896569</v>
       </c>
       <c r="CR52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>930366</v>
       </c>
       <c r="CS52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>955707</v>
       </c>
       <c r="CT52">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="CT52:DY52" si="3">SUM(CT2:CT51)</f>
         <v>978419</v>
       </c>
       <c r="CU52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1002423</v>
       </c>
       <c r="CV52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1030232</v>
       </c>
       <c r="CW52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1058991</v>
       </c>
       <c r="CX52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1091748</v>
       </c>
       <c r="CY52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1121581</v>
       </c>
       <c r="CZ52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1146528</v>
       </c>
       <c r="DA52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1168032</v>
       </c>
       <c r="DB52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1192002</v>
       </c>
       <c r="DC52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1215514</v>
       </c>
       <c r="DD52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1242933</v>
       </c>
       <c r="DE52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1270075</v>
       </c>
       <c r="DF52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1295450</v>
       </c>
       <c r="DG52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1315405</v>
       </c>
       <c r="DH52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1333069</v>
       </c>
       <c r="DI52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1354446</v>
       </c>
       <c r="DJ52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1375009</v>
       </c>
       <c r="DK52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1401624</v>
       </c>
       <c r="DL52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1426396</v>
       </c>
       <c r="DM52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1450736</v>
       </c>
       <c r="DN52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1469173</v>
       </c>
       <c r="DO52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1490662</v>
       </c>
       <c r="DP52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1511096</v>
       </c>
       <c r="DQ52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1533062</v>
       </c>
       <c r="DR52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1558783</v>
       </c>
       <c r="DS52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1582037</v>
       </c>
       <c r="DT52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1604218</v>
       </c>
       <c r="DU52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1624754</v>
       </c>
       <c r="DV52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1643720</v>
       </c>
       <c r="DW52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1661572</v>
       </c>
       <c r="DX52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1681546</v>
       </c>
       <c r="DY52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1703958</v>
       </c>
       <c r="DZ52">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="DZ52:FE52" si="4">SUM(DZ2:DZ51)</f>
         <v>1728890</v>
       </c>
       <c r="EA52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1751696</v>
       </c>
       <c r="EB52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1770456</v>
       </c>
       <c r="EC52">
-        <f t="shared" ref="EC52:FN52" si="2" xml:space="preserve"> SUM(EC2:EC51)</f>
+        <f t="shared" si="4"/>
         <v>1791732</v>
       </c>
       <c r="ED52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1812184</v>
       </c>
       <c r="EE52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1831520</v>
       </c>
       <c r="EF52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1853189</v>
       </c>
       <c r="EG52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1881861</v>
       </c>
       <c r="EH52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1904692</v>
       </c>
       <c r="EI52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1922598</v>
       </c>
       <c r="EJ52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1939523</v>
       </c>
       <c r="EK52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1958015</v>
       </c>
       <c r="EL52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1978394</v>
       </c>
       <c r="EM52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2000862</v>
       </c>
       <c r="EN52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2026501</v>
       </c>
       <c r="EO52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2052173</v>
       </c>
       <c r="EP52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2072579</v>
       </c>
       <c r="EQ52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2091126</v>
       </c>
       <c r="ER52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2115609</v>
       </c>
       <c r="ES52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2140021</v>
       </c>
       <c r="ET52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2167136</v>
       </c>
       <c r="EU52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2198025</v>
       </c>
       <c r="EV52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2229714</v>
       </c>
       <c r="EW52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2256541</v>
       </c>
       <c r="EX52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2285876</v>
       </c>
       <c r="EY52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2320783</v>
       </c>
       <c r="EZ52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2356156</v>
       </c>
       <c r="FA52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2395206</v>
       </c>
       <c r="FB52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2440971</v>
       </c>
       <c r="FC52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2483236</v>
       </c>
       <c r="FD52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2523053</v>
       </c>
       <c r="FE52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2562056</v>
       </c>
       <c r="FF52">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="FF52:GK52" si="5">SUM(FF2:FF51)</f>
         <v>2608319</v>
       </c>
       <c r="FG52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2657916</v>
       </c>
       <c r="FH52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2713388</v>
       </c>
       <c r="FI52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2766962</v>
       </c>
       <c r="FJ52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2812181</v>
       </c>
       <c r="FK52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2854024</v>
       </c>
       <c r="FL52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2907449</v>
       </c>
       <c r="FM52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2963423</v>
       </c>
       <c r="FN52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3074894</v>
+      </c>
+      <c r="FO52">
+        <f t="shared" si="5"/>
+        <v>3135444</v>
       </c>
     </row>
   </sheetData>

--- a/state_covid19.xlsx
+++ b/state_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanz\Desktop\Gdelt\googleapi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9785EDA5-6DF7-4B0A-80B4-82DB4955FD4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892845BD-49E2-4797-9729-2651F521D57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -252,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -261,6 +261,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:FO52"/>
+  <dimension ref="A1:FP52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="FP2" sqref="FP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,8 +1083,11 @@
       <c r="FN1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="FP1" s="4">
+        <v>44024</v>
+      </c>
     </row>
-    <row r="2" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>49174</v>
       </c>
     </row>
-    <row r="3" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="4" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2628,7 +2632,7 @@
         <v>112671</v>
       </c>
     </row>
-    <row r="5" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3143,7 +3147,7 @@
         <v>26052</v>
       </c>
     </row>
-    <row r="6" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3658,7 +3662,7 @@
         <v>303323</v>
       </c>
     </row>
-    <row r="7" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -4173,7 +4177,7 @@
         <v>35525</v>
       </c>
     </row>
-    <row r="8" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -4688,7 +4692,7 @@
         <v>47209</v>
       </c>
     </row>
-    <row r="9" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -5203,7 +5207,7 @@
         <v>12531</v>
       </c>
     </row>
-    <row r="10" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -5718,7 +5722,7 @@
         <v>232718</v>
       </c>
     </row>
-    <row r="11" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -6233,7 +6237,7 @@
         <v>106727</v>
       </c>
     </row>
-    <row r="12" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -6748,7 +6752,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="13" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -7263,7 +7267,7 @@
         <v>9428</v>
       </c>
     </row>
-    <row r="14" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -7778,7 +7782,7 @@
         <v>151572</v>
       </c>
     </row>
-    <row r="15" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -8293,7 +8297,7 @@
         <v>49575</v>
       </c>
     </row>
-    <row r="16" spans="1:171" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:172" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -27475,7 +27479,7 @@
         <v>2562056</v>
       </c>
       <c r="FF52">
-        <f t="shared" ref="FF52:GK52" si="5">SUM(FF2:FF51)</f>
+        <f t="shared" ref="FF52:FO52" si="5">SUM(FF2:FF51)</f>
         <v>2608319</v>
       </c>
       <c r="FG52">

--- a/state_covid19.xlsx
+++ b/state_covid19.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FS52"/>
+  <dimension ref="A1:FT52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="FP2" sqref="FP2"/>
@@ -1500,6 +1500,9 @@
       <c r="FS2" t="n">
         <v>55545</v>
       </c>
+      <c r="FT2" t="n">
+        <v>57255</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2023,6 +2026,9 @@
       <c r="FS3" t="n">
         <v>1539</v>
       </c>
+      <c r="FT3" t="n">
+        <v>1579</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2546,6 +2552,9 @@
       <c r="FS4" t="n">
         <v>123824</v>
       </c>
+      <c r="FT4" t="n">
+        <v>128097</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3069,6 +3078,9 @@
       <c r="FS5" t="n">
         <v>28939</v>
       </c>
+      <c r="FT5" t="n">
+        <v>29733</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3592,6 +3604,9 @@
       <c r="FS6" t="n">
         <v>336037</v>
       </c>
+      <c r="FT6" t="n">
+        <v>346445</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4115,6 +4130,9 @@
       <c r="FS7" t="n">
         <v>37242</v>
       </c>
+      <c r="FT7" t="n">
+        <v>37686</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4638,6 +4656,9 @@
       <c r="FS8" t="n">
         <v>47510</v>
       </c>
+      <c r="FT8" t="n">
+        <v>47530</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5161,6 +5182,9 @@
       <c r="FS9" t="n">
         <v>12879</v>
       </c>
+      <c r="FT9" t="n">
+        <v>13050</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5684,6 +5708,9 @@
       <c r="FS10" t="n">
         <v>282435</v>
       </c>
+      <c r="FT10" t="n">
+        <v>291629</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6207,6 +6234,9 @@
       <c r="FS11" t="n">
         <v>120569</v>
       </c>
+      <c r="FT11" t="n">
+        <v>123963</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6730,6 +6760,9 @@
       <c r="FS12" t="n">
         <v>1243</v>
       </c>
+      <c r="FT12" t="n">
+        <v>1264</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -7253,6 +7286,9 @@
       <c r="FS13" t="n">
         <v>11402</v>
       </c>
+      <c r="FT13" t="n">
+        <v>11718</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -7776,6 +7812,9 @@
       <c r="FS14" t="n">
         <v>155931</v>
       </c>
+      <c r="FT14" t="n">
+        <v>156638</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -8299,6 +8338,9 @@
       <c r="FS15" t="n">
         <v>52037</v>
       </c>
+      <c r="FT15" t="n">
+        <v>52685</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -8822,6 +8864,9 @@
       <c r="FS16" t="n">
         <v>35830</v>
       </c>
+      <c r="FT16" t="n">
+        <v>36036</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -9345,6 +9390,9 @@
       <c r="FS17" t="n">
         <v>20241</v>
       </c>
+      <c r="FT17" t="n">
+        <v>20302</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -9868,6 +9916,9 @@
       <c r="FS18" t="n">
         <v>19653</v>
       </c>
+      <c r="FT18" t="n">
+        <v>20223</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -10391,6 +10442,9 @@
       <c r="FS19" t="n">
         <v>79827</v>
       </c>
+      <c r="FT19" t="n">
+        <v>82051</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -10914,6 +10968,9 @@
       <c r="FS20" t="n">
         <v>3566</v>
       </c>
+      <c r="FT20" t="n">
+        <v>3578</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -11437,6 +11494,9 @@
       <c r="FS21" t="n">
         <v>74260</v>
       </c>
+      <c r="FT21" t="n">
+        <v>75016</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -11960,6 +12020,9 @@
       <c r="FS22" t="n">
         <v>111827</v>
       </c>
+      <c r="FT22" t="n">
+        <v>112130</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -12483,6 +12546,9 @@
       <c r="FS23" t="n">
         <v>77198</v>
       </c>
+      <c r="FT23" t="n">
+        <v>77864</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -13006,6 +13072,9 @@
       <c r="FS24" t="n">
         <v>42772</v>
       </c>
+      <c r="FT24" t="n">
+        <v>43170</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -13529,6 +13598,9 @@
       <c r="FS25" t="n">
         <v>30049</v>
       </c>
+      <c r="FT25" t="n">
+        <v>31209</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -14052,6 +14124,9 @@
       <c r="FS26" t="n">
         <v>36680</v>
       </c>
+      <c r="FT26" t="n">
+        <v>37542</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -14575,6 +14650,9 @@
       <c r="FS27" t="n">
         <v>1843</v>
       </c>
+      <c r="FT27" t="n">
+        <v>1952</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -15098,6 +15176,9 @@
       <c r="FS28" t="n">
         <v>21399</v>
       </c>
+      <c r="FT28" t="n">
+        <v>21717</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -15621,6 +15702,9 @@
       <c r="FS29" t="n">
         <v>28515</v>
       </c>
+      <c r="FT29" t="n">
+        <v>29619</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -16144,6 +16228,9 @@
       <c r="FS30" t="n">
         <v>6068</v>
       </c>
+      <c r="FT30" t="n">
+        <v>6091</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -16667,6 +16754,9 @@
       <c r="FS31" t="n">
         <v>181366</v>
       </c>
+      <c r="FT31" t="n">
+        <v>181773</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -17190,6 +17280,9 @@
       <c r="FS32" t="n">
         <v>15291</v>
       </c>
+      <c r="FT32" t="n">
+        <v>15514</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -17713,6 +17806,9 @@
       <c r="FS33" t="n">
         <v>428303</v>
       </c>
+      <c r="FT33" t="n">
+        <v>429278</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -18236,6 +18332,9 @@
       <c r="FS34" t="n">
         <v>87729</v>
       </c>
+      <c r="FT34" t="n">
+        <v>89643</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -18759,6 +18858,9 @@
       <c r="FS35" t="n">
         <v>4442</v>
       </c>
+      <c r="FT35" t="n">
+        <v>4493</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -19282,6 +19384,9 @@
       <c r="FS36" t="n">
         <v>66891</v>
       </c>
+      <c r="FT36" t="n">
+        <v>68059</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -19805,6 +19910,9 @@
       <c r="FS37" t="n">
         <v>20745</v>
       </c>
+      <c r="FT37" t="n">
+        <v>21738</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -20328,6 +20436,9 @@
       <c r="FS38" t="n">
         <v>12438</v>
       </c>
+      <c r="FT38" t="n">
+        <v>12805</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -20851,6 +20962,9 @@
       <c r="FS39" t="n">
         <v>100378</v>
       </c>
+      <c r="FT39" t="n">
+        <v>101360</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -21374,6 +21488,9 @@
       <c r="FS40" t="n">
         <v>17487</v>
       </c>
+      <c r="FT40" t="n">
+        <v>17588</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -21897,6 +22014,9 @@
       <c r="FS41" t="n">
         <v>58168</v>
       </c>
+      <c r="FT41" t="n">
+        <v>60389</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -22420,6 +22540,9 @@
       <c r="FS42" t="n">
         <v>7524</v>
       </c>
+      <c r="FT42" t="n">
+        <v>7572</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -22943,6 +23066,9 @@
       <c r="FS43" t="n">
         <v>65274</v>
       </c>
+      <c r="FT43" t="n">
+        <v>66788</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -23466,6 +23592,9 @@
       <c r="FS44" t="n">
         <v>274712</v>
       </c>
+      <c r="FT44" t="n">
+        <v>285772</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -23989,6 +24118,9 @@
       <c r="FS45" t="n">
         <v>30030</v>
       </c>
+      <c r="FT45" t="n">
+        <v>30478</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -24512,6 +24644,9 @@
       <c r="FS46" t="n">
         <v>1301</v>
       </c>
+      <c r="FT46" t="n">
+        <v>1305</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -25035,6 +25170,9 @@
       <c r="FS47" t="n">
         <v>72443</v>
       </c>
+      <c r="FT47" t="n">
+        <v>73527</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -25558,6 +25696,9 @@
       <c r="FS48" t="n">
         <v>42741</v>
       </c>
+      <c r="FT48" t="n">
+        <v>43577</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -26081,6 +26222,9 @@
       <c r="FS49" t="n">
         <v>4316</v>
       </c>
+      <c r="FT49" t="n">
+        <v>4463</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -26604,6 +26748,9 @@
       <c r="FS50" t="n">
         <v>36942</v>
       </c>
+      <c r="FT50" t="n">
+        <v>37906</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -27127,6 +27274,9 @@
       <c r="FS51" t="n">
         <v>1904</v>
       </c>
+      <c r="FT51" t="n">
+        <v>1951</v>
+      </c>
     </row>
     <row r="52">
       <c r="B52">

--- a/state_covid19.xlsx
+++ b/state_covid19.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FT52"/>
+  <dimension ref="A1:FU52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="FP2" sqref="FP2"/>
@@ -1503,6 +1503,9 @@
       <c r="FT2" t="n">
         <v>57255</v>
       </c>
+      <c r="FU2" t="n">
+        <v>59067</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2029,6 +2032,9 @@
       <c r="FT3" t="n">
         <v>1579</v>
       </c>
+      <c r="FU3" t="n">
+        <v>1631</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2555,6 +2561,9 @@
       <c r="FT4" t="n">
         <v>128097</v>
       </c>
+      <c r="FU4" t="n">
+        <v>131354</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3081,6 +3090,9 @@
       <c r="FT5" t="n">
         <v>29733</v>
       </c>
+      <c r="FU5" t="n">
+        <v>30297</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3607,6 +3619,9 @@
       <c r="FT6" t="n">
         <v>346445</v>
       </c>
+      <c r="FU6" t="n">
+        <v>355285</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -4133,6 +4148,9 @@
       <c r="FT7" t="n">
         <v>37686</v>
       </c>
+      <c r="FU7" t="n">
+        <v>38155</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -4659,6 +4677,9 @@
       <c r="FT8" t="n">
         <v>47530</v>
       </c>
+      <c r="FU8" t="n">
+        <v>47636</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5185,6 +5206,9 @@
       <c r="FT9" t="n">
         <v>13050</v>
       </c>
+      <c r="FU9" t="n">
+        <v>13050</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5711,6 +5735,9 @@
       <c r="FT10" t="n">
         <v>291629</v>
       </c>
+      <c r="FU10" t="n">
+        <v>301810</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6237,6 +6264,9 @@
       <c r="FT11" t="n">
         <v>123963</v>
       </c>
+      <c r="FU11" t="n">
+        <v>127834</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6763,6 +6793,9 @@
       <c r="FT12" t="n">
         <v>1264</v>
       </c>
+      <c r="FU12" t="n">
+        <v>1292</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -7289,6 +7322,9 @@
       <c r="FT13" t="n">
         <v>11718</v>
       </c>
+      <c r="FU13" t="n">
+        <v>12445</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -7815,6 +7851,9 @@
       <c r="FT14" t="n">
         <v>156638</v>
       </c>
+      <c r="FU14" t="n">
+        <v>157825</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -8341,6 +8380,9 @@
       <c r="FT15" t="n">
         <v>52685</v>
       </c>
+      <c r="FU15" t="n">
+        <v>53370</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -8867,6 +8909,9 @@
       <c r="FT16" t="n">
         <v>36036</v>
       </c>
+      <c r="FU16" t="n">
+        <v>36737</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -9393,6 +9438,9 @@
       <c r="FT17" t="n">
         <v>20302</v>
       </c>
+      <c r="FU17" t="n">
+        <v>21151</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -9919,6 +9967,9 @@
       <c r="FT18" t="n">
         <v>20223</v>
       </c>
+      <c r="FU18" t="n">
+        <v>20677</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -10445,6 +10496,9 @@
       <c r="FT19" t="n">
         <v>82051</v>
       </c>
+      <c r="FU19" t="n">
+        <v>84133</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -10971,6 +11025,9 @@
       <c r="FT20" t="n">
         <v>3578</v>
       </c>
+      <c r="FU20" t="n">
+        <v>3598</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -11497,6 +11554,9 @@
       <c r="FT21" t="n">
         <v>75016</v>
       </c>
+      <c r="FU21" t="n">
+        <v>75664</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -12023,6 +12083,9 @@
       <c r="FT22" t="n">
         <v>112130</v>
       </c>
+      <c r="FU22" t="n">
+        <v>112347</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -12549,6 +12612,9 @@
       <c r="FT23" t="n">
         <v>77864</v>
       </c>
+      <c r="FU23" t="n">
+        <v>78913</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -13075,6 +13141,9 @@
       <c r="FT24" t="n">
         <v>43170</v>
       </c>
+      <c r="FU24" t="n">
+        <v>43742</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -13601,6 +13670,9 @@
       <c r="FT25" t="n">
         <v>31209</v>
       </c>
+      <c r="FU25" t="n">
+        <v>32155</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -14127,6 +14199,9 @@
       <c r="FT26" t="n">
         <v>37542</v>
       </c>
+      <c r="FU26" t="n">
+        <v>38567</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -14653,6 +14728,9 @@
       <c r="FT27" t="n">
         <v>1952</v>
       </c>
+      <c r="FU27" t="n">
+        <v>2096</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -15179,6 +15257,9 @@
       <c r="FT28" t="n">
         <v>21717</v>
       </c>
+      <c r="FU28" t="n">
+        <v>21979</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -15705,6 +15786,9 @@
       <c r="FT29" t="n">
         <v>29619</v>
       </c>
+      <c r="FU29" t="n">
+        <v>30468</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -16231,6 +16315,9 @@
       <c r="FT30" t="n">
         <v>6091</v>
       </c>
+      <c r="FU30" t="n">
+        <v>6113</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -16757,6 +16844,9 @@
       <c r="FT31" t="n">
         <v>181773</v>
       </c>
+      <c r="FU31" t="n">
+        <v>182094</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -17283,6 +17373,9 @@
       <c r="FT32" t="n">
         <v>15514</v>
       </c>
+      <c r="FU32" t="n">
+        <v>15841</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -17809,6 +17902,9 @@
       <c r="FT33" t="n">
         <v>429278</v>
       </c>
+      <c r="FU33" t="n">
+        <v>430277</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -18335,6 +18431,9 @@
       <c r="FT34" t="n">
         <v>89643</v>
       </c>
+      <c r="FU34" t="n">
+        <v>91487</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -18861,6 +18960,9 @@
       <c r="FT35" t="n">
         <v>4493</v>
       </c>
+      <c r="FU35" t="n">
+        <v>4565</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -19387,6 +19489,9 @@
       <c r="FT36" t="n">
         <v>68059</v>
       </c>
+      <c r="FU36" t="n">
+        <v>69371</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -19913,6 +20018,9 @@
       <c r="FT37" t="n">
         <v>21738</v>
       </c>
+      <c r="FU37" t="n">
+        <v>22813</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -20439,6 +20547,9 @@
       <c r="FT38" t="n">
         <v>12805</v>
       </c>
+      <c r="FU38" t="n">
+        <v>13081</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -20965,6 +21076,9 @@
       <c r="FT39" t="n">
         <v>101360</v>
       </c>
+      <c r="FU39" t="n">
+        <v>102361</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -21491,6 +21605,9 @@
       <c r="FT40" t="n">
         <v>17588</v>
       </c>
+      <c r="FU40" t="n">
+        <v>17640</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -22017,6 +22134,9 @@
       <c r="FT41" t="n">
         <v>60389</v>
       </c>
+      <c r="FU41" t="n">
+        <v>62245</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -22543,6 +22663,9 @@
       <c r="FT42" t="n">
         <v>7572</v>
       </c>
+      <c r="FU42" t="n">
+        <v>7652</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -23069,6 +23192,9 @@
       <c r="FT43" t="n">
         <v>66788</v>
       </c>
+      <c r="FU43" t="n">
+        <v>69061</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -23595,6 +23721,9 @@
       <c r="FT44" t="n">
         <v>285772</v>
       </c>
+      <c r="FU44" t="n">
+        <v>298007</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -24121,6 +24250,9 @@
       <c r="FT45" t="n">
         <v>30478</v>
       </c>
+      <c r="FU45" t="n">
+        <v>30891</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -24647,6 +24779,9 @@
       <c r="FT46" t="n">
         <v>1305</v>
       </c>
+      <c r="FU46" t="n">
+        <v>1318</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -25173,6 +25308,9 @@
       <c r="FT47" t="n">
         <v>73527</v>
       </c>
+      <c r="FU47" t="n">
+        <v>74431</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -25699,6 +25837,9 @@
       <c r="FT48" t="n">
         <v>43577</v>
       </c>
+      <c r="FU48" t="n">
+        <v>44350</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -26225,6 +26366,9 @@
       <c r="FT49" t="n">
         <v>4463</v>
       </c>
+      <c r="FU49" t="n">
+        <v>4557</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -26751,6 +26895,9 @@
       <c r="FT50" t="n">
         <v>37906</v>
       </c>
+      <c r="FU50" t="n">
+        <v>38727</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -27277,6 +27424,9 @@
       <c r="FT51" t="n">
         <v>1951</v>
       </c>
+      <c r="FU51" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="52">
       <c r="B52">
